--- a/branches/master/StructureDefinition-MedRecord.xlsx
+++ b/branches/master/StructureDefinition-MedRecord.xlsx
@@ -832,6 +832,26 @@
     <t>Medication summaries associated with the patient</t>
   </si>
   <si>
+    <t>MedRecordOrder</t>
+  </si>
+  <si>
+    <t>Prescription
+Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedicationRequest {https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordOrder}
+</t>
+  </si>
+  <si>
+    <t>Ordering of medication for patient or group</t>
+  </si>
+  <si>
+    <t>An order or request for both supply of the medication and the instructions for administration of the medication to a patient. The resource is called "MedicationRequest" rather than "MedicationPrescription" or "MedicationOrder" to generalize the use across inpatient and outpatient settings, including care plans, etc., and to harmonize with workflow patterns.</t>
+  </si>
+  <si>
+    <t>CombinedMedicationRequest</t>
+  </si>
+  <si>
     <t>MedRecordDispense</t>
   </si>
   <si>
@@ -868,27 +888,7 @@
     <t>MedRecordMedicationScheduledAdministration</t>
   </si>
   <si>
-    <t>Prescription
-Order</t>
-  </si>
-  <si>
     <t xml:space="preserve">MedicationRequest {https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordMedicationScheduledAdministration}
-</t>
-  </si>
-  <si>
-    <t>Ordering of medication for patient or group</t>
-  </si>
-  <si>
-    <t>An order or request for both supply of the medication and the instructions for administration of the medication to a patient. The resource is called "MedicationRequest" rather than "MedicationPrescription" or "MedicationOrder" to generalize the use across inpatient and outpatient settings, including care plans, etc., and to harmonize with workflow patterns.</t>
-  </si>
-  <si>
-    <t>CombinedMedicationRequest</t>
-  </si>
-  <si>
-    <t>MedRecordOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MedicationRequest {https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordOrder}
 </t>
   </si>
   <si>
@@ -24732,7 +24732,7 @@
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -24751,13 +24751,13 @@
         <v>40</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -24820,7 +24820,7 @@
         <v>40</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="AJ215" t="s" s="2">
         <v>40</v>
@@ -28348,13 +28348,13 @@
         <v>40</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="AJ247" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="AL247" t="s" s="2">
         <v>40</v>
@@ -31123,7 +31123,7 @@
         <v>135</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C273" t="s" s="2">
         <v>40</v>
@@ -31788,7 +31788,7 @@
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
@@ -31807,13 +31807,13 @@
         <v>40</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -31882,7 +31882,7 @@
         <v>40</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="AL279" t="s" s="2">
         <v>40</v>
@@ -35316,7 +35316,7 @@
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -35338,10 +35338,10 @@
         <v>271</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
@@ -35410,7 +35410,7 @@
         <v>40</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="AL311" t="s" s="2">
         <v>40</v>
